--- a/Taller_serie_Taylor.xlsx
+++ b/Taller_serie_Taylor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L52\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6C52C-999F-4CEE-9761-016ACFD5F2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BE3BCA-4AE0-4CF8-BA24-BBAAD2F8F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BDA4107-79C5-4485-BE1B-2F3714FB73C6}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>f(0.6)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>1,1(0,6)^3-1,6(0,6)^2+3(0,6)-5</t>
   </si>
@@ -66,6 +63,27 @@
   </si>
   <si>
     <t>(-)3,5395+(6,6/6)*(0,1)^3</t>
+  </si>
+  <si>
+    <t>f(0,45)</t>
+  </si>
+  <si>
+    <t>f(0,6)</t>
+  </si>
+  <si>
+    <t>(1,6*EXP(1)^(0,45))-(4,2(0,45))+2,75</t>
+  </si>
+  <si>
+    <t>(1,6*EXP(1)^(0,4))-(4,2(0,4))+2,75</t>
+  </si>
+  <si>
+    <t>3,4569195+(((8*EXP(1)^(0,4))-21)/5)*(0,05)</t>
+  </si>
+  <si>
+    <t>3,3662655+((8*EXP(1)^(0,4))/2)*(0,05)^2</t>
+  </si>
+  <si>
+    <t>3,3811837+((8*EXP(1)^(0,4))/6)*(0,05)^3</t>
   </si>
 </sst>
 </file>
@@ -82,21 +100,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,16 +134,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,91 +481,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AF6C0-08B3-4BCD-A360-705B6914280E}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1">
         <f>1.1*(0.6)^3-1.6*(0.6)^2+3*(0.6)-5</f>
         <v>-3.5384000000000002</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1">
+        <f>(1.6*EXP(1)^(0.45))-(4.2*(0.45))+2.75</f>
+        <v>3.3692994967842704</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3">
         <f>(1.1*(0.5)^3)-(1.6*(0.5)^2)+(3*(0.5))-5</f>
         <v>-3.7625000000000002</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3">
+        <f>(1.6*EXP(1)^(0.4))-(4.2*(0.4))+2.75</f>
+        <v>3.4569195162260327</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
         <f>-3.7625+((3.3*(0.5)^2)-(3.2*(0.5))+3)*0.1</f>
         <v>-3.54</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3">
+        <f>3.4569195+(((8*EXP(1)^(0.4))-21)/5)*(0.05)</f>
+        <v>3.3662654758113018</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
         <f>-3.54+(((6.6*(0.5))-3.2)/2)*(0.1)^2</f>
         <v>-3.5394999999999999</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3">
+        <f>3.3662655+((8*EXP(1)^(0.4))/2)*(0.05)^2</f>
+        <v>3.3811837469764128</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1">
         <f>-3.5395+(6.6/6)*(0.1)^3</f>
         <v>-3.5383999999999998</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="1">
+        <f>3.3811837+((8*EXP(1)^(0.4))/6)*(0.05)^3</f>
+        <v>3.3814323374496067</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Taller_serie_Taylor.xlsx
+++ b/Taller_serie_Taylor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L52\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BE3BCA-4AE0-4CF8-BA24-BBAAD2F8F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC2E1C-E19A-4CCA-A03B-12B80C29DB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BDA4107-79C5-4485-BE1B-2F3714FB73C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>1,1(0,6)^3-1,6(0,6)^2+3(0,6)-5</t>
   </si>
@@ -77,13 +77,19 @@
     <t>(1,6*EXP(1)^(0,4))-(4,2(0,4))+2,75</t>
   </si>
   <si>
-    <t>3,4569195+(((8*EXP(1)^(0,4))-21)/5)*(0,05)</t>
-  </si>
-  <si>
-    <t>3,3662655+((8*EXP(1)^(0,4))/2)*(0,05)^2</t>
-  </si>
-  <si>
-    <t>3,3811837+((8*EXP(1)^(0,4))/6)*(0,05)^3</t>
+    <t>Punto 1</t>
+  </si>
+  <si>
+    <t>Punto 2</t>
+  </si>
+  <si>
+    <t>3,4569195+(((1,6*EXP(1)^(0,4))-4,2))*(0,05)</t>
+  </si>
+  <si>
+    <t>3,3662655+((1,6*EXP(1)^(0,4))/2)*(0,05)^2</t>
+  </si>
+  <si>
+    <t>3,3692491+((1,6*EXP(1)^(0,4))/6)*(0,05)^3</t>
   </si>
 </sst>
 </file>
@@ -126,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,12 +155,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -165,6 +211,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AF6C0-08B3-4BCD-A360-705B6914280E}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,146 +550,163 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2">
         <f>1.1*(0.6)^3-1.6*(0.6)^2+3*(0.6)-5</f>
         <v>-3.5384000000000002</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2">
         <f>(1.6*EXP(1)^(0.45))-(4.2*(0.45))+2.75</f>
         <v>3.3692994967842704</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4">
         <f>(1.1*(0.5)^3)-(1.6*(0.5)^2)+(3*(0.5))-5</f>
         <v>-3.7625000000000002</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3">
-        <f>(1.6*EXP(1)^(0.4))-(4.2*(0.4))+2.75</f>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="4">
         <v>3.4569195162260327</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4">
         <f>-3.7625+((3.3*(0.5)^2)-(3.2*(0.5))+3)*0.1</f>
         <v>-3.54</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3">
-        <f>3.4569195+(((8*EXP(1)^(0.4))-21)/5)*(0.05)</f>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="4">
+        <f>3.4569195+(((1.6*EXP(1)^(0.4))-4.2))*(0.05)</f>
         <v>3.3662654758113018</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4">
         <f>-3.54+(((6.6*(0.5))-3.2)/2)*(0.1)^2</f>
         <v>-3.5394999999999999</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3">
-        <f>3.3662655+((8*EXP(1)^(0.4))/2)*(0.05)^2</f>
-        <v>3.3811837469764128</v>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4">
+        <f>3.3662655+((1.6*EXP(1)^(0.4))/2)*(0.05)^2</f>
+        <v>3.3692491493952823</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2">
         <f>-3.5395+(6.6/6)*(0.1)^3</f>
         <v>-3.5383999999999998</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="1">
-        <f>3.3811837+((8*EXP(1)^(0.4))/6)*(0.05)^3</f>
-        <v>3.3814323374496067</v>
+      <c r="H6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="2">
+        <f>3.3692491+((1.6*EXP(1)^(0.4))/6)*(0.05)^3</f>
+        <v>3.3692988274899216</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
